--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/10/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.814</v>
+        <v>16.432</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.542</v>
+        <v>-21.626</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.132</v>
+        <v>16.994</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.594</v>
+        <v>16.41400000000001</v>
       </c>
     </row>
     <row r="27">
@@ -967,12 +967,12 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.508</v>
+        <v>16.376</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.724</v>
+        <v>-21.744</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1035,12 +1035,12 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.344</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.78</v>
+        <v>-20.339</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1069,12 +1069,12 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.554</v>
+        <v>16.737</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.558</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1205,12 +1205,12 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.45</v>
+        <v>16.851</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.792</v>
+        <v>-21.835</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.778</v>
+        <v>-21.869</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2</v>
+        <v>-22.164</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="58">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.565</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.721</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.052</v>
+        <v>-21.445</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.658</v>
+        <v>-21.652</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.398</v>
+        <v>-20.43</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.47</v>
+        <v>16.749</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.634</v>
+        <v>16.669</v>
       </c>
     </row>
   </sheetData>
